--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/Documents/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFC844-C999-E34B-A7E6-C4B9B6D491A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801DFED0-3E64-F248-8472-867EF50400EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16040" activeTab="1" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="38320" yWindow="1040" windowWidth="27640" windowHeight="16040" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="organism" sheetId="1" r:id="rId1"/>
-    <sheet name="specimen from organism" sheetId="2" r:id="rId2"/>
-    <sheet name="pool of specimens" sheetId="3" r:id="rId3"/>
-    <sheet name="cell specimen" sheetId="4" r:id="rId4"/>
-    <sheet name="cell culture" sheetId="5" r:id="rId5"/>
-    <sheet name="cell line" sheetId="6" r:id="rId6"/>
+    <sheet name="submission" sheetId="9" r:id="rId1"/>
+    <sheet name="person" sheetId="8" r:id="rId2"/>
+    <sheet name="organization" sheetId="7" r:id="rId3"/>
+    <sheet name="organism" sheetId="1" r:id="rId4"/>
+    <sheet name="specimen from organism" sheetId="2" r:id="rId5"/>
+    <sheet name="pool of specimens" sheetId="3" r:id="rId6"/>
+    <sheet name="cell specimen" sheetId="4" r:id="rId7"/>
+    <sheet name="cell culture" sheetId="5" r:id="rId8"/>
+    <sheet name="cell line" sheetId="6" r:id="rId9"/>
+    <sheet name="faang_field_values" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="318">
   <si>
     <t>Sample Name</t>
   </si>
@@ -879,6 +883,117 @@
   </si>
   <si>
     <t>corneas</t>
+  </si>
+  <si>
+    <t>Submission Title</t>
+  </si>
+  <si>
+    <t>Submission Description</t>
+  </si>
+  <si>
+    <t>Macleod horse samples - FAANG example file</t>
+  </si>
+  <si>
+    <t>Example sample information using the FAANG metadata spec</t>
+  </si>
+  <si>
+    <t>Person Last Name</t>
+  </si>
+  <si>
+    <t>Person Initials</t>
+  </si>
+  <si>
+    <t>Person First Name</t>
+  </si>
+  <si>
+    <t>Person Email</t>
+  </si>
+  <si>
+    <t>Person Role</t>
+  </si>
+  <si>
+    <t>submitter</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>P.W.</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>peter@ebi.ac.uk</t>
+  </si>
+  <si>
+    <t>array manufacturer</t>
+  </si>
+  <si>
+    <t>biomaterial provider</t>
+  </si>
+  <si>
+    <t>biosequence provider</t>
+  </si>
+  <si>
+    <t>consortium member</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>curator</t>
+  </si>
+  <si>
+    <t>data analyst</t>
+  </si>
+  <si>
+    <t>data coder</t>
+  </si>
+  <si>
+    <t>experiment performer</t>
+  </si>
+  <si>
+    <t>funder</t>
+  </si>
+  <si>
+    <t>hardware manufacturer</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>investigator</t>
+  </si>
+  <si>
+    <t>material supplier role</t>
+  </si>
+  <si>
+    <t>peer review quality control role</t>
+  </si>
+  <si>
+    <t>software manufacturer</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Organization Address</t>
+  </si>
+  <si>
+    <t>Organization URI</t>
+  </si>
+  <si>
+    <t>Organization Role</t>
+  </si>
+  <si>
+    <t>EMBL-EBI</t>
+  </si>
+  <si>
+    <t>Wellcome Genome Campus, Hinxton, Cambridge, CB10 1SD, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,6 +1039,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -942,10 +1065,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,8 +1086,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1275,6 +1401,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A4ECA9-7CB1-F043-84C4-AAF65C8CA7BB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA79CE41-E7F8-4747-B872-A5AA07CA7B66}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zCFpiliM6HXnIyaI7wTKAl6KTUhRo9sTzIC4OlQBMLnPYDMt34xCvdvSJqVsqKCudFydkkmzNUR1DOk34VM+Rw==" saltValue="PILKIiFex4icVYJSoX/o9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B441351C-8598-A347-9BA7-8C07FEEC172B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{43ACA2F9-6101-5748-AAE9-FD2A77E48FFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F27ED4BF-DB94-6747-AFF6-D4637AF7279A}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$1:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5FF3C5-6F60-D34F-BDFC-E7BB47BFA472}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E6CDBA5-E21A-4C4D-BC1E-B972B91AA723}">
+          <x14:formula1>
+            <xm:f>faang_field_values!$A$1:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
@@ -1945,11 +2341,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -4422,7 +4818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDB8B31-5708-7A47-82A1-1D92D16B4350}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -4550,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ACC09F-CC77-104D-9FE2-CB2F0CA34011}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -4676,7 +5072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0D5B1-FB29-2148-B436-B10963A6809E}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -4755,7 +5151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1768E-5FFC-3B47-B3F8-93EDEED05C14}">
   <dimension ref="A1:AB1"/>
   <sheetViews>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801DFED0-3E64-F248-8472-867EF50400EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EEE42-50FD-AE47-B8B4-38C8157E4B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="1040" windowWidth="27640" windowHeight="16040" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="38320" yWindow="1040" windowWidth="27640" windowHeight="16040" activeTab="4" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="322">
   <si>
     <t>Sample Name</t>
   </si>
@@ -994,6 +994,18 @@
   </si>
   <si>
     <t>http://www.ebi.ac.uk/</t>
+  </si>
+  <si>
+    <t>Secondary Project</t>
+  </si>
+  <si>
+    <t>Average Incubation temperature</t>
+  </si>
+  <si>
+    <t>Average Incubation Humidity</t>
+  </si>
+  <si>
+    <t>Embryonic Stage</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1047,6 +1059,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1069,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +1107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1404,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A4ECA9-7CB1-F043-84C4-AAF65C8CA7BB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1672,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,36 +1706,37 @@
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,92 +1752,95 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1831,40 +1856,41 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1880,39 +1906,40 @@
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,39 +1955,40 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1976,38 +2004,39 @@
       <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2023,38 +2052,39 @@
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2070,38 +2100,39 @@
       <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2117,38 +2148,39 @@
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2164,38 +2196,39 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2211,38 +2244,39 @@
       <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2258,38 +2292,39 @@
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2305,34 +2340,35 @@
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2343,49 +2379,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="79" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="12.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2401,86 +2444,107 @@
       <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -2496,45 +2560,46 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="4"/>
+      <c r="I2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>23.5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="AE2" s="7" t="s">
+      <c r="T2" s="13"/>
+      <c r="AL2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -2550,44 +2615,45 @@
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="4"/>
+      <c r="I3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>23.5</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -2603,44 +2669,45 @@
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="4"/>
+      <c r="I4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>23.5</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
@@ -2656,44 +2723,45 @@
       <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="4"/>
+      <c r="I5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>23.5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AL5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2709,44 +2777,45 @@
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="4"/>
+      <c r="I6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>23.5</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AL6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2762,44 +2831,45 @@
       <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="4"/>
+      <c r="I7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>23.5</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AL7" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2815,44 +2885,45 @@
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="4"/>
+      <c r="I8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>23.5</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AL8" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -2868,44 +2939,45 @@
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="4"/>
+      <c r="I9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>23.5</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AL9" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2921,44 +2993,45 @@
       <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="4"/>
+      <c r="I10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>23.5</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AL10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2974,44 +3047,45 @@
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="4"/>
+      <c r="I11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>23.5</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AL11" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
@@ -3027,44 +3101,45 @@
       <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="4"/>
+      <c r="I12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>23.5</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE12" s="7" t="s">
+      <c r="AL12" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -3080,44 +3155,45 @@
       <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="4"/>
+      <c r="I13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>23.5</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AL13" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
@@ -3133,44 +3209,45 @@
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="4"/>
+      <c r="I14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>23.5</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE14" s="7" t="s">
+      <c r="AL14" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -3186,44 +3263,45 @@
       <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="4"/>
+      <c r="I15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>23.5</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE15" s="7" t="s">
+      <c r="AL15" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
@@ -3239,44 +3317,45 @@
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="4"/>
+      <c r="I16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>23.5</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE16" s="7" t="s">
+      <c r="AL16" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
@@ -3292,44 +3371,45 @@
       <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="4"/>
+      <c r="I17" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>23.5</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE17" s="7" t="s">
+      <c r="AL17" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
@@ -3345,44 +3425,45 @@
       <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="4"/>
+      <c r="I18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>23.5</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AL18" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -3398,44 +3479,45 @@
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="4"/>
+      <c r="I19" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>23.5</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE19" s="7" t="s">
+      <c r="AL19" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>80</v>
       </c>
@@ -3451,44 +3533,45 @@
       <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="4"/>
+      <c r="I20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>23.5</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="S20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE20" s="7" t="s">
+      <c r="AL20" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>81</v>
       </c>
@@ -3504,44 +3587,45 @@
       <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="4"/>
+      <c r="I21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>23.5</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE21" s="7" t="s">
+      <c r="AL21" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
@@ -3557,44 +3641,45 @@
       <c r="E22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="4"/>
+      <c r="I22" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>23.5</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE22" s="7" t="s">
+      <c r="AL22" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>83</v>
       </c>
@@ -3610,44 +3695,45 @@
       <c r="E23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="F23" s="4"/>
+      <c r="I23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>23.5</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE23" s="7" t="s">
+      <c r="AL23" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
@@ -3663,44 +3749,45 @@
       <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="4"/>
+      <c r="I24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>23.5</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="S24" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE24" s="7" t="s">
+      <c r="AL24" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -3716,44 +3803,45 @@
       <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="F25" s="4"/>
+      <c r="I25" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>23.5</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE25" s="7" t="s">
+      <c r="AL25" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>86</v>
       </c>
@@ -3769,44 +3857,45 @@
       <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="F26" s="4"/>
+      <c r="I26" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>23.5</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="S26" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE26" s="7" t="s">
+      <c r="AL26" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>87</v>
       </c>
@@ -3822,44 +3911,45 @@
       <c r="E27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="F27" s="4"/>
+      <c r="I27" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>23.5</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE27" s="7" t="s">
+      <c r="AL27" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>88</v>
       </c>
@@ -3875,44 +3965,45 @@
       <c r="E28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="F28" s="4"/>
+      <c r="I28" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>23.5</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE28" s="7" t="s">
+      <c r="AL28" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
@@ -3928,44 +4019,45 @@
       <c r="E29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="F29" s="4"/>
+      <c r="I29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>23.5</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE29" s="7" t="s">
+      <c r="AL29" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
@@ -3981,44 +4073,45 @@
       <c r="E30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="F30" s="4"/>
+      <c r="I30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>23.5</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE30" s="7" t="s">
+      <c r="AL30" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -4034,44 +4127,45 @@
       <c r="E31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="F31" s="4"/>
+      <c r="I31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>23.5</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE31" s="7" t="s">
+      <c r="AL31" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -4087,44 +4181,45 @@
       <c r="E32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="F32" s="4"/>
+      <c r="I32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>23.5</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE32" s="7" t="s">
+      <c r="AL32" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>93</v>
       </c>
@@ -4140,44 +4235,45 @@
       <c r="E33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="11">
+      <c r="F33" s="4"/>
+      <c r="I33" s="11">
         <v>38533</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>23.5</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AL33" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
@@ -4193,44 +4289,45 @@
       <c r="E34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="11">
+      <c r="F34" s="4"/>
+      <c r="I34" s="11">
         <v>38527</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>34</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AL34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>95</v>
       </c>
@@ -4246,44 +4343,45 @@
       <c r="E35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="11">
+      <c r="F35" s="4"/>
+      <c r="I35" s="11">
         <v>38535</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>16</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AL35" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>96</v>
       </c>
@@ -4299,44 +4397,45 @@
       <c r="E36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="11">
+      <c r="F36" s="4"/>
+      <c r="I36" s="11">
         <v>38535</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>50</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE36" s="4" t="s">
+      <c r="AL36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
@@ -4352,44 +4451,45 @@
       <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="11">
+      <c r="F37" s="4"/>
+      <c r="I37" s="11">
         <v>38535</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>4</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE37" s="4" t="s">
+      <c r="AL37" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>98</v>
       </c>
@@ -4405,44 +4505,45 @@
       <c r="E38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="11">
+      <c r="F38" s="4"/>
+      <c r="I38" s="11">
         <v>38535</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>4</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AL38" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>99</v>
       </c>
@@ -4458,44 +4559,45 @@
       <c r="E39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="F39" s="4"/>
+      <c r="I39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>22.147343658779501</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE39" s="7" t="s">
+      <c r="AL39" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>100</v>
       </c>
@@ -4511,44 +4613,45 @@
       <c r="E40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="F40" s="4"/>
+      <c r="I40" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>22.0911088979704</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE40" s="7" t="s">
+      <c r="AL40" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>101</v>
       </c>
@@ -4564,44 +4667,45 @@
       <c r="E41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="F41" s="4"/>
+      <c r="I41" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>22.0348741371613</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE41" s="7" t="s">
+      <c r="AL41" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>102</v>
       </c>
@@ -4617,44 +4721,45 @@
       <c r="E42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="F42" s="4"/>
+      <c r="I42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>21.978639376352199</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE42" s="7" t="s">
+      <c r="AL42" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>103</v>
       </c>
@@ -4670,44 +4775,45 @@
       <c r="E43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="4"/>
+      <c r="I43" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>21.922404615543101</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="R43" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE43" s="7" t="s">
+      <c r="AL43" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>104</v>
       </c>
@@ -4723,44 +4829,45 @@
       <c r="E44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="F44" s="4"/>
+      <c r="I44" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>21.866169854734</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="S44" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE44" s="7" t="s">
+      <c r="AL44" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>105</v>
       </c>
@@ -4776,40 +4883,41 @@
       <c r="E45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="F45" s="4"/>
+      <c r="I45" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>21.809935093924899</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="P45" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="R45" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AE45" s="7" t="s">
+      <c r="AL45" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4820,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDB8B31-5708-7A47-82A1-1D92D16B4350}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4833,24 +4941,24 @@
     <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4866,50 +4974,53 @@
       <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -4925,19 +5036,20 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="4"/>
+      <c r="I2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4948,30 +5060,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ACC09F-CC77-104D-9FE2-CB2F0CA34011}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4987,29 +5100,32 @@
       <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>253</v>
       </c>
@@ -5025,20 +5141,21 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>254</v>
       </c>
@@ -5054,16 +5171,17 @@
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5074,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0D5B1-FB29-2148-B436-B10963A6809E}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5087,19 +5205,20 @@
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5115,34 +5234,37 @@
       <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5153,9 +5275,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1768E-5FFC-3B47-B3F8-93EDEED05C14}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5164,32 +5288,33 @@
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5205,73 +5330,76 @@
       <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>246</v>
       </c>
     </row>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EEE42-50FD-AE47-B8B4-38C8157E4B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D22ED7-29DE-F543-858B-FBBDB4C2CBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="1040" windowWidth="27640" windowHeight="16040" activeTab="4" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="323">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>Embryonic Stage</t>
+  </si>
+  <si>
+    <t>Diet</t>
   </si>
 </sst>
 </file>
@@ -1693,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,25 +1721,25 @@
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1792,55 +1795,58 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1887,10 +1893,11 @@
       <c r="R2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="S2" s="7"/>
       <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1937,9 +1944,10 @@
       <c r="R3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S3" s="7"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1986,9 +1994,10 @@
       <c r="R4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S4" s="7"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2035,8 +2044,9 @@
       <c r="R5" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2083,8 +2093,9 @@
       <c r="R6" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2131,8 +2142,9 @@
       <c r="R7" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2179,8 +2191,9 @@
       <c r="R8" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2227,8 +2240,9 @@
       <c r="R9" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2275,8 +2289,9 @@
       <c r="R10" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2323,8 +2338,9 @@
       <c r="R11" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2371,6 +2387,7 @@
       <c r="R12" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="S12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D22ED7-29DE-F543-858B-FBBDB4C2CBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC6A341-78D4-F846-85CB-4B25432A0189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
     <sheet name="person" sheetId="8" r:id="rId2"/>
     <sheet name="organization" sheetId="7" r:id="rId3"/>
     <sheet name="organism" sheetId="1" r:id="rId4"/>
-    <sheet name="specimen from organism" sheetId="2" r:id="rId5"/>
-    <sheet name="pool of specimens" sheetId="3" r:id="rId6"/>
-    <sheet name="cell specimen" sheetId="4" r:id="rId7"/>
-    <sheet name="cell culture" sheetId="5" r:id="rId8"/>
-    <sheet name="cell line" sheetId="6" r:id="rId9"/>
-    <sheet name="faang_field_values" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="organoid" sheetId="11" r:id="rId5"/>
+    <sheet name="specimen from organism" sheetId="2" r:id="rId6"/>
+    <sheet name="teleostei embryo" sheetId="12" r:id="rId7"/>
+    <sheet name="teleostei post-hatching" sheetId="13" r:id="rId8"/>
+    <sheet name="single cell specimen" sheetId="14" r:id="rId9"/>
+    <sheet name="pool of specimens" sheetId="3" r:id="rId10"/>
+    <sheet name="cell specimen" sheetId="4" r:id="rId11"/>
+    <sheet name="cell culture" sheetId="5" r:id="rId12"/>
+    <sheet name="cell line" sheetId="6" r:id="rId13"/>
+    <sheet name="faang_field_values" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="374">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1009,6 +1013,159 @@
   </si>
   <si>
     <t>Diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organ Model </t>
+  </si>
+  <si>
+    <t>Organ Part Model</t>
+  </si>
+  <si>
+    <t>Freezing Date</t>
+  </si>
+  <si>
+    <t>Freezing Method</t>
+  </si>
+  <si>
+    <t>Freezing Protocol</t>
+  </si>
+  <si>
+    <t>Input Aggregate Cell Count</t>
+  </si>
+  <si>
+    <t>Organoid Passage Protocol</t>
+  </si>
+  <si>
+    <t>Organoid Age</t>
+  </si>
+  <si>
+    <t>Type Of Organoid Culture</t>
+  </si>
+  <si>
+    <t>Organoid Morphology</t>
+  </si>
+  <si>
+    <t>Embeddded In Matrigel</t>
+  </si>
+  <si>
+    <t>Growth Environment</t>
+  </si>
+  <si>
+    <t>Stored Oxygen Level</t>
+  </si>
+  <si>
+    <t>Incubation Temperature</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Reproductive Strategy</t>
+  </si>
+  <si>
+    <t>Hatching</t>
+  </si>
+  <si>
+    <t>Time Post Fertilisation</t>
+  </si>
+  <si>
+    <t>Pre-hatching Water Temperature Average</t>
+  </si>
+  <si>
+    <t>Post-hatching Water Temperature Average</t>
+  </si>
+  <si>
+    <t>Degree Days</t>
+  </si>
+  <si>
+    <t>Growth Media</t>
+  </si>
+  <si>
+    <t>Medium Replacement Frequency</t>
+  </si>
+  <si>
+    <t>Percentage Total Somite Number</t>
+  </si>
+  <si>
+    <t>Average Water Salinity</t>
+  </si>
+  <si>
+    <t>Photoperiod</t>
+  </si>
+  <si>
+    <t>Generations From Wild</t>
+  </si>
+  <si>
+    <t>Gonad Type</t>
+  </si>
+  <si>
+    <t>Experimental Strain Id</t>
+  </si>
+  <si>
+    <t>Genetic Background</t>
+  </si>
+  <si>
+    <t>Maturity State</t>
+  </si>
+  <si>
+    <t>Water Rearing Conditions</t>
+  </si>
+  <si>
+    <t>Post-hatching Animal Density</t>
+  </si>
+  <si>
+    <t>Food Restriction</t>
+  </si>
+  <si>
+    <t>Average Water Oxygen</t>
+  </si>
+  <si>
+    <t>Standard Length</t>
+  </si>
+  <si>
+    <t>Total Length</t>
+  </si>
+  <si>
+    <t>Fork Length</t>
+  </si>
+  <si>
+    <t>Sampling Weight</t>
+  </si>
+  <si>
+    <t>Sampling Day Start Time</t>
+  </si>
+  <si>
+    <t>Sampling Day End Time</t>
+  </si>
+  <si>
+    <t>Method Of Schedule 1 Killing</t>
+  </si>
+  <si>
+    <t>Anaesthetic Or Sedative Name</t>
+  </si>
+  <si>
+    <t>Tissue Dissociation</t>
+  </si>
+  <si>
+    <t>Cell Enrichment</t>
+  </si>
+  <si>
+    <t>Enrichment Markers</t>
+  </si>
+  <si>
+    <t>Single Cell Isolation</t>
+  </si>
+  <si>
+    <t>Single Cell Entity</t>
+  </si>
+  <si>
+    <t>Single Cell Quality</t>
+  </si>
+  <si>
+    <t>Cell Number</t>
+  </si>
+  <si>
+    <t>Single Cell Isolation Protocol</t>
   </si>
 </sst>
 </file>
@@ -1460,6 +1617,488 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDB8B31-5708-7A47-82A1-1D92D16B4350}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="I2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ACC09F-CC77-104D-9FE2-CB2F0CA34011}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0D5B1-FB29-2148-B436-B10963A6809E}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1768E-5FFC-3B47-B3F8-93EDEED05C14}">
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA79CE41-E7F8-4747-B872-A5AA07CA7B66}">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -1698,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,11 +3034,147 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C48961-30A0-5845-A7E7-FE39AD3383A7}">
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4943,276 +5718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDB8B31-5708-7A47-82A1-1D92D16B4350}">
-  <dimension ref="A1:T2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FEE83-5A35-9347-A22B-DDB308621828}">
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ACC09F-CC77-104D-9FE2-CB2F0CA34011}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="88.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0D5B1-FB29-2148-B436-B10963A6809E}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5225,64 +5736,215 @@
     <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>266</v>
+      <c r="I1" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
         <v>246</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5290,12 +5952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1768E-5FFC-3B47-B3F8-93EDEED05C14}">
-  <dimension ref="A1:AC1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
+  <dimension ref="A1:BW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,115 +5970,397 @@
     <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.1640625" customWidth="1"/>
+    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.6640625" customWidth="1"/>
+    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>31</v>
+      <c r="I1" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>46</v>
+      <c r="Q1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="U1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C3D8D-BEEC-B048-B46C-29193FE3D9AC}">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC1" s="12" t="s">
+      <c r="N1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>246</v>
       </c>
     </row>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC6A341-78D4-F846-85CB-4B25432A0189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE69E4-769F-6E4E-86B3-EAE836DBDAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="52400" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -5722,8 +5722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FEE83-5A35-9347-A22B-DDB308621828}">
   <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:BG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5766,6 +5766,16 @@
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.2">
@@ -5956,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
   <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6274,7 +6284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C3D8D-BEEC-B048-B46C-29193FE3D9AC}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE69E4-769F-6E4E-86B3-EAE836DBDAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCEA07-C1A0-3F4D-A00D-5D2201336D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52400" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="54160" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -1108,9 +1108,6 @@
     <t>Maturity State</t>
   </si>
   <si>
-    <t>Water Rearing Conditions</t>
-  </si>
-  <si>
     <t>Post-hatching Animal Density</t>
   </si>
   <si>
@@ -1132,15 +1129,6 @@
     <t>Sampling Weight</t>
   </si>
   <si>
-    <t>Sampling Day Start Time</t>
-  </si>
-  <si>
-    <t>Sampling Day End Time</t>
-  </si>
-  <si>
-    <t>Method Of Schedule 1 Killing</t>
-  </si>
-  <si>
     <t>Anaesthetic Or Sedative Name</t>
   </si>
   <si>
@@ -1166,6 +1154,18 @@
   </si>
   <si>
     <t>Single Cell Isolation Protocol</t>
+  </si>
+  <si>
+    <t>Method Of Euthanasia</t>
+  </si>
+  <si>
+    <t>Water Rearing System</t>
+  </si>
+  <si>
+    <t>Sampling Data Start Time</t>
+  </si>
+  <si>
+    <t>Sampling Data End Time</t>
   </si>
 </sst>
 </file>
@@ -5966,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
   <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6043,8 +6043,8 @@
     <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6200,10 +6200,10 @@
         <v>45</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>45</v>
@@ -6212,7 +6212,7 @@
         <v>322</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>45</v>
@@ -6224,7 +6224,7 @@
         <v>45</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>45</v>
@@ -6239,40 +6239,40 @@
         <v>348</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6338,13 +6338,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>260</v>
@@ -6353,22 +6353,22 @@
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>246</v>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCEA07-C1A0-3F4D-A00D-5D2201336D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CD84DD-D6CA-B649-AAF4-C2F0180D6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54160" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="51200" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -1162,10 +1162,10 @@
     <t>Water Rearing System</t>
   </si>
   <si>
-    <t>Sampling Data Start Time</t>
-  </si>
-  <si>
-    <t>Sampling Data End Time</t>
+    <t>Sampling Day Start Time</t>
+  </si>
+  <si>
+    <t>Sampling Day End Time</t>
   </si>
 </sst>
 </file>
@@ -5967,7 +5967,7 @@
   <dimension ref="A1:BW1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BW1" sqref="BW1"/>
+      <selection activeCell="BV1" sqref="BV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CD84DD-D6CA-B649-AAF4-C2F0180D6231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C96FA-8B6C-D840-B6BE-999CA2224668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="2840" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="41600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="376">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>Sampling Day End Time</t>
+  </si>
+  <si>
+    <t>Collection Date</t>
+  </si>
+  <si>
+    <t>Geographic Location</t>
   </si>
 </sst>
 </file>
@@ -1249,23 +1255,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1626,114 +1626,113 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="2"/>
+      <c r="I2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>238</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -1758,120 +1757,119 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="88.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1909,52 +1907,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2005,91 +2003,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="12" t="s">
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2245,7 +2243,7 @@
       <c r="C2" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>294</v>
       </c>
       <c r="E2" t="s">
@@ -2335,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,30 +2353,33 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.83203125" customWidth="1"/>
-    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2394,7 +2395,7 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2416,617 +2417,634 @@
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="T2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="T4" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="T5" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="F6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="R6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="T6" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="T7" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="R8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="T8" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="T9" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="T10" t="s">
         <v>61</v>
       </c>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="R11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="T11" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="T12" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,7 +3106,7 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3179,139 +3197,138 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="25.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" style="7" customWidth="1"/>
-    <col min="38" max="38" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="12.6640625" style="7"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
+    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.6640625" customWidth="1"/>
+    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -3332,2384 +3349,2384 @@
       <c r="AK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="2"/>
+      <c r="I2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>23.5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="AL2" s="7" t="s">
+      <c r="T2" s="2"/>
+      <c r="AL2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>23.5</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="I4" s="10" t="s">
+      <c r="F4" s="2"/>
+      <c r="I4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>23.5</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="I5" s="10" t="s">
+      <c r="F5" s="2"/>
+      <c r="I5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>23.5</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AL5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="I6" s="10" t="s">
+      <c r="F6" s="2"/>
+      <c r="I6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>23.5</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="2"/>
+      <c r="I7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>23.5</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="2"/>
+      <c r="I8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>23.5</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="2"/>
+      <c r="I9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>23.5</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL9" s="7" t="s">
+      <c r="AL9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="2"/>
+      <c r="I10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>23.5</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="2"/>
+      <c r="I11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>23.5</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="I12" s="10" t="s">
+      <c r="F12" s="2"/>
+      <c r="I12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>23.5</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL12" s="7" t="s">
+      <c r="AL12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="I13" s="10" t="s">
+      <c r="F13" s="2"/>
+      <c r="I13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>23.5</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL13" s="7" t="s">
+      <c r="AL13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="2"/>
+      <c r="I14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>23.5</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL14" s="7" t="s">
+      <c r="AL14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="I15" s="10" t="s">
+      <c r="F15" s="2"/>
+      <c r="I15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>23.5</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL15" s="7" t="s">
+      <c r="AL15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="2"/>
+      <c r="I16" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>23.5</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL16" s="7" t="s">
+      <c r="AL16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="I17" s="10" t="s">
+      <c r="F17" s="2"/>
+      <c r="I17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <v>23.5</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL17" s="7" t="s">
+      <c r="AL17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="I18" s="10" t="s">
+      <c r="F18" s="2"/>
+      <c r="I18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <v>23.5</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL18" s="7" t="s">
+      <c r="AL18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="I19" s="10" t="s">
+      <c r="F19" s="2"/>
+      <c r="I19" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <v>23.5</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL19" s="7" t="s">
+      <c r="AL19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="I20" s="10" t="s">
+      <c r="F20" s="2"/>
+      <c r="I20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <v>23.5</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL20" s="7" t="s">
+      <c r="AL20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="I21" s="10" t="s">
+      <c r="F21" s="2"/>
+      <c r="I21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>23.5</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL21" s="7" t="s">
+      <c r="AL21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="I22" s="10" t="s">
+      <c r="F22" s="2"/>
+      <c r="I22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <v>23.5</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL22" s="7" t="s">
+      <c r="AL22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="I23" s="10" t="s">
+      <c r="F23" s="2"/>
+      <c r="I23" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <v>23.5</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL23" s="7" t="s">
+      <c r="AL23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="I24" s="10" t="s">
+      <c r="F24" s="2"/>
+      <c r="I24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <v>23.5</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL24" s="7" t="s">
+      <c r="AL24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="2"/>
+      <c r="I25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <v>23.5</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL25" s="7" t="s">
+      <c r="AL25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="I26" s="10" t="s">
+      <c r="F26" s="2"/>
+      <c r="I26" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <v>23.5</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" t="s">
         <v>61</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL26" s="7" t="s">
+      <c r="AL26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="I27" s="10" t="s">
+      <c r="F27" s="2"/>
+      <c r="I27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <v>23.5</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" t="s">
         <v>61</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL27" s="7" t="s">
+      <c r="AL27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="I28" s="10" t="s">
+      <c r="F28" s="2"/>
+      <c r="I28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <v>23.5</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL28" s="7" t="s">
+      <c r="AL28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="I29" s="10" t="s">
+      <c r="F29" s="2"/>
+      <c r="I29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <v>23.5</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL29" s="7" t="s">
+      <c r="AL29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="I30" s="10" t="s">
+      <c r="F30" s="2"/>
+      <c r="I30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <v>23.5</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL30" s="7" t="s">
+      <c r="AL30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="I31" s="10" t="s">
+      <c r="F31" s="2"/>
+      <c r="I31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="2">
         <v>23.5</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" t="s">
         <v>61</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL31" s="7" t="s">
+      <c r="AL31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="I32" s="10" t="s">
+      <c r="F32" s="2"/>
+      <c r="I32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="2">
         <v>23.5</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL32" s="7" t="s">
+      <c r="AL32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="I33" s="11">
+      <c r="F33" s="2"/>
+      <c r="I33" s="7">
         <v>38533</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="2">
         <v>23.5</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL33" s="4" t="s">
+      <c r="AL33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="I34" s="11">
+      <c r="F34" s="2"/>
+      <c r="I34" s="7">
         <v>38527</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="2">
         <v>34</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" t="s">
         <v>61</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL34" s="4" t="s">
+      <c r="AL34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="I35" s="11">
+      <c r="F35" s="2"/>
+      <c r="I35" s="7">
         <v>38535</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="2">
         <v>16</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" t="s">
         <v>61</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL35" s="4" t="s">
+      <c r="AL35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="I36" s="11">
+      <c r="F36" s="2"/>
+      <c r="I36" s="7">
         <v>38535</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <v>50</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" t="s">
         <v>61</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL36" s="4" t="s">
+      <c r="AL36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="I37" s="11">
+      <c r="F37" s="2"/>
+      <c r="I37" s="7">
         <v>38535</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="2">
         <v>4</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" t="s">
         <v>61</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL37" s="4" t="s">
+      <c r="AL37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="I38" s="11">
+      <c r="F38" s="2"/>
+      <c r="I38" s="7">
         <v>38535</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="2">
         <v>4</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" t="s">
         <v>61</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL38" s="4" t="s">
+      <c r="AL38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="I39" s="10" t="s">
+      <c r="F39" s="2"/>
+      <c r="I39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="2">
         <v>22.147343658779501</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" t="s">
         <v>61</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL39" s="7" t="s">
+      <c r="AL39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="I40" s="10" t="s">
+      <c r="F40" s="2"/>
+      <c r="I40" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="2">
         <v>22.0911088979704</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" t="s">
         <v>61</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL40" s="7" t="s">
+      <c r="AL40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="I41" s="10" t="s">
+      <c r="F41" s="2"/>
+      <c r="I41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="2">
         <v>22.0348741371613</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" t="s">
         <v>61</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL41" s="7" t="s">
+      <c r="AL41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="I42" s="10" t="s">
+      <c r="F42" s="2"/>
+      <c r="I42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="2">
         <v>21.978639376352199</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" t="s">
         <v>61</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="S42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL42" s="7" t="s">
+      <c r="AL42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="I43" s="10" t="s">
+      <c r="F43" s="2"/>
+      <c r="I43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="2">
         <v>21.922404615543101</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" t="s">
         <v>61</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="S43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL43" s="7" t="s">
+      <c r="AL43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="I44" s="10" t="s">
+      <c r="F44" s="2"/>
+      <c r="I44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="2">
         <v>21.866169854734</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="S44" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL44" s="7" t="s">
+      <c r="AL44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="I45" s="10" t="s">
+      <c r="F45" s="2"/>
+      <c r="I45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="2">
         <v>21.809935093924899</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" t="s">
         <v>61</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="S45" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL45" s="7" t="s">
+      <c r="AL45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5794,7 +5811,7 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5803,73 +5820,73 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -5890,7 +5907,7 @@
       <c r="AK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -5966,7 +5983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
   <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+    <sheetView topLeftCell="BE1" workbookViewId="0">
       <selection activeCell="BV1" sqref="BV1"/>
     </sheetView>
   </sheetViews>
@@ -6064,7 +6081,7 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -6073,73 +6090,73 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="9" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -6160,7 +6177,7 @@
       <c r="AK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -6190,7 +6207,7 @@
       <c r="AU1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AW1" s="1" t="s">
@@ -6328,7 +6345,7 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -6349,7 +6366,7 @@
       <c r="L1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C96FA-8B6C-D840-B6BE-999CA2224668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EB5119-346E-114C-878F-F615AEECFE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="41600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="375">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1166,9 +1166,6 @@
   </si>
   <si>
     <t>Sampling Day End Time</t>
-  </si>
-  <si>
-    <t>Collection Date</t>
   </si>
   <si>
     <t>Geographic Location</t>
@@ -2333,9 +2330,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2353,33 +2350,31 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2417,82 +2412,76 @@
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>322</v>
+        <v>59</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2521,30 +2510,28 @@
       <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" t="s">
+      <c r="R2" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2573,29 +2560,27 @@
       <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T3" t="s">
+      <c r="R3" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="2"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2624,29 +2609,27 @@
       <c r="L4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T4" t="s">
+      <c r="R4" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2675,28 +2658,26 @@
       <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T5" t="s">
+      <c r="R5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2725,28 +2706,26 @@
       <c r="L6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T6" t="s">
+      <c r="R6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2775,28 +2754,26 @@
       <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T7" t="s">
+      <c r="R7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2825,28 +2802,26 @@
       <c r="L8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T8" t="s">
+      <c r="R8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2875,28 +2850,26 @@
       <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T9" t="s">
+      <c r="R9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2925,28 +2898,26 @@
       <c r="L10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T10" t="s">
+      <c r="R10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2975,28 +2946,26 @@
       <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T11" t="s">
+      <c r="R11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3025,24 +2994,22 @@
       <c r="L12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T12" t="s">
+      <c r="R12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3189,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,37 +3174,38 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="79" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3269,91 +3237,94 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -3376,39 +3347,40 @@
       <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <v>23.5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="AL2" t="s">
+      <c r="U2" s="2"/>
+      <c r="AM2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -3431,38 +3403,39 @@
       <c r="J3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>23.5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -3485,38 +3458,39 @@
       <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>23.5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -3539,38 +3513,39 @@
       <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <v>23.5</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -3593,38 +3568,39 @@
       <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <v>23.5</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -3647,38 +3623,39 @@
       <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
         <v>23.5</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -3701,38 +3678,39 @@
       <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
         <v>23.5</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -3755,38 +3733,39 @@
       <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
         <v>23.5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3809,38 +3788,39 @@
       <c r="J10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
         <v>23.5</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>71</v>
       </c>
@@ -3863,38 +3843,39 @@
       <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
         <v>23.5</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -3917,38 +3898,39 @@
       <c r="J12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
         <v>23.5</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -3971,38 +3953,39 @@
       <c r="J13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
         <v>23.5</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -4025,38 +4008,39 @@
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
         <v>23.5</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -4079,38 +4063,39 @@
       <c r="J15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
         <v>23.5</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -4133,38 +4118,39 @@
       <c r="J16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
         <v>23.5</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -4187,38 +4173,39 @@
       <c r="J17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <v>23.5</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -4241,38 +4228,39 @@
       <c r="J18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
         <v>23.5</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -4295,38 +4283,39 @@
       <c r="J19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
         <v>23.5</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -4349,38 +4338,39 @@
       <c r="J20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
         <v>23.5</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
@@ -4403,38 +4393,39 @@
       <c r="J21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
         <v>23.5</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -4457,38 +4448,39 @@
       <c r="J22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
         <v>23.5</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -4511,38 +4503,39 @@
       <c r="J23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
         <v>23.5</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -4565,38 +4558,39 @@
       <c r="J24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
         <v>23.5</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -4619,38 +4613,39 @@
       <c r="J25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
         <v>23.5</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -4673,38 +4668,39 @@
       <c r="J26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
         <v>23.5</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>61</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -4727,38 +4723,39 @@
       <c r="J27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
         <v>23.5</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>61</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -4781,38 +4778,39 @@
       <c r="J28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
         <v>23.5</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>61</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4835,38 +4833,39 @@
       <c r="J29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
         <v>23.5</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -4889,38 +4888,39 @@
       <c r="J30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
         <v>23.5</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -4943,38 +4943,39 @@
       <c r="J31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
         <v>23.5</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>61</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -4997,38 +4998,39 @@
       <c r="J32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
         <v>23.5</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -5051,38 +5053,39 @@
       <c r="J33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
         <v>23.5</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL33" s="2" t="s">
+      <c r="AM33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -5105,38 +5108,39 @@
       <c r="J34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
         <v>34</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>61</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL34" s="2" t="s">
+      <c r="AM34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
@@ -5159,38 +5163,39 @@
       <c r="J35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
         <v>16</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>61</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="S35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AM35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
@@ -5213,38 +5218,39 @@
       <c r="J36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
         <v>50</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>61</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL36" s="2" t="s">
+      <c r="AM36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -5267,38 +5273,39 @@
       <c r="J37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
         <v>4</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>61</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AM37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -5321,38 +5328,39 @@
       <c r="J38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
         <v>4</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>61</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="T38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL38" s="2" t="s">
+      <c r="AM38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -5375,38 +5383,39 @@
       <c r="J39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
         <v>22.147343658779501</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>61</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="S39" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -5429,38 +5438,39 @@
       <c r="J40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
         <v>22.0911088979704</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>61</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="S40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="T40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AM40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -5483,38 +5493,39 @@
       <c r="J41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
         <v>22.0348741371613</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>61</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="T41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AM41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -5537,38 +5548,39 @@
       <c r="J42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2">
         <v>21.978639376352199</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>61</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="T42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AM42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -5591,38 +5603,39 @@
       <c r="J43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2">
         <v>21.922404615543101</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>61</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="S43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AM43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
@@ -5645,38 +5658,39 @@
       <c r="J44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2">
         <v>21.866169854734</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="N44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL44" t="s">
+      <c r="AM44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -5699,34 +5713,35 @@
       <c r="J45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2">
         <v>21.809935093924899</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>61</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL45" t="s">
+      <c r="AM45" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EB5119-346E-114C-878F-F615AEECFE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C91E9-1294-5E43-B285-4C2BCA1CA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="35960" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="cell line" sheetId="6" r:id="rId13"/>
     <sheet name="faang_field_values" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="375">
   <si>
     <t>Sample Name</t>
   </si>
@@ -3158,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5752,10 +5752,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FEE83-5A35-9347-A22B-DDB308621828}">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5770,47 +5770,59 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5842,150 +5854,153 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5996,10 +6011,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
-  <dimension ref="A1:BW1"/>
+  <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6014,73 +6029,74 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.1640625" customWidth="1"/>
-    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.6640625" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6112,198 +6128,201 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>361</v>
       </c>
     </row>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C91E9-1294-5E43-B285-4C2BCA1CA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89EE27C-2635-A74E-BF3B-00CA4FFC55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35960" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="35960" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="373">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t xml:space="preserve">Organ Model </t>
-  </si>
-  <si>
     <t>Organ Part Model</t>
   </si>
   <si>
@@ -1030,24 +1027,15 @@
     <t>Freezing Protocol</t>
   </si>
   <si>
-    <t>Input Aggregate Cell Count</t>
-  </si>
-  <si>
     <t>Organoid Passage Protocol</t>
   </si>
   <si>
-    <t>Organoid Age</t>
-  </si>
-  <si>
     <t>Type Of Organoid Culture</t>
   </si>
   <si>
     <t>Organoid Morphology</t>
   </si>
   <si>
-    <t>Embeddded In Matrigel</t>
-  </si>
-  <si>
     <t>Growth Environment</t>
   </si>
   <si>
@@ -1169,6 +1157,12 @@
   </si>
   <si>
     <t>Geographic Location</t>
+  </si>
+  <si>
+    <t>Organ Model</t>
+  </si>
+  <si>
+    <t>Organoid Passage</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1230,6 +1224,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1248,11 +1258,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1265,8 +1276,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent 4" xfId="2" xr:uid="{44F38996-3733-D44F-92B6-744E5CDC5990}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3020,9 +3034,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C48961-30A0-5845-A7E7-FE39AD3383A7}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3057,95 +3071,86 @@
     <col min="30" max="30" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AA1" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3237,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>155</v>
@@ -5854,7 +5859,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>155</v>
@@ -5941,64 +5946,64 @@
         <v>246</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>45</v>
@@ -6013,7 +6018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
   <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6133,7 @@
         <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>155</v>
@@ -6215,46 +6220,46 @@
         <v>246</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>45</v>
@@ -6263,67 +6268,67 @@
         <v>322</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6389,13 +6394,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>260</v>
@@ -6404,22 +6409,22 @@
         <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>246</v>

--- a/src/assets/with_examples/faang_sample.xlsx
+++ b/src/assets/with_examples/faang_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yroochun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89EE27C-2635-A74E-BF3B-00CA4FFC55A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1152FCF-31E1-B840-A27E-07E5DC55119C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35960" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="375">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1163,6 +1163,12 @@
   </si>
   <si>
     <t>Organoid Passage</t>
+  </si>
+  <si>
+    <t>Number Of Frozen Cells</t>
+  </si>
+  <si>
+    <t>Organoid Culture And Passage Protocol</t>
   </si>
 </sst>
 </file>
@@ -3034,9 +3040,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C48961-30A0-5845-A7E7-FE39AD3383A7}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3056,22 +3064,25 @@
     <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3121,36 +3132,45 @@
         <v>326</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>246</v>
       </c>
     </row>
